--- a/public/example/dark3範例檔案.xlsx
+++ b/public/example/dark3範例檔案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>sn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,26 +48,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eb1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>last_four</t>
   </si>
   <si>
     <t>p4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,19 +424,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N3"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -472,19 +468,16 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F2" s="1"/>
     </row>
   </sheetData>

--- a/public/example/dark3範例檔案.xlsx
+++ b/public/example/dark3範例檔案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7680" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>sn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>p4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giftcard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -436,7 +432,7 @@
     <col min="11" max="11" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,11 +469,8 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F2" s="1"/>
     </row>
   </sheetData>

--- a/public/example/dark3範例檔案.xlsx
+++ b/public/example/dark3範例檔案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8610" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>sn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,19 +424,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="11" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,10 +471,13 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F2" s="1"/>
     </row>
   </sheetData>
